--- a/team_specific_matrix/Tulsa_B.xlsx
+++ b/team_specific_matrix/Tulsa_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.189922480620155</v>
+        <v>0.1980519480519481</v>
       </c>
       <c r="C2">
-        <v>0.5232558139534884</v>
+        <v>0.512987012987013</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01550387596899225</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.007751937984496124</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="P2">
-        <v>0.1550387596899225</v>
+        <v>0.1525974025974026</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1085271317829457</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007142857142857143</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="C3">
-        <v>0.02857142857142857</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05</v>
+        <v>0.04848484848484848</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7785714285714286</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1357142857142857</v>
+        <v>0.1393939393939394</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08823529411764706</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6470588235294118</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2647058823529412</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04697986577181208</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01342281879194631</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02684563758389262</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2953020134228188</v>
+        <v>0.3038674033149171</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02013422818791946</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1476510067114094</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="R6">
-        <v>0.08053691275167785</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="S6">
-        <v>0.3691275167785235</v>
+        <v>0.3867403314917127</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1313131313131313</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0202020202020202</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03535353535353535</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1464646464646465</v>
+        <v>0.15</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0303030303030303</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1919191919191919</v>
+        <v>0.1791666666666667</v>
       </c>
       <c r="R7">
-        <v>0.05555555555555555</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0.3888888888888889</v>
+        <v>0.4083333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1076923076923077</v>
+        <v>0.1018276762402089</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02461538461538462</v>
+        <v>0.02610966057441253</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05846153846153846</v>
+        <v>0.06527415143603134</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1261538461538461</v>
+        <v>0.1227154046997389</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01538461538461539</v>
+        <v>0.02349869451697128</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1938461538461538</v>
+        <v>0.1775456919060052</v>
       </c>
       <c r="R8">
-        <v>0.07076923076923076</v>
+        <v>0.0731070496083551</v>
       </c>
       <c r="S8">
-        <v>0.4030769230769231</v>
+        <v>0.4099216710182768</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0119047619047619</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.0625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1071428571428571</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01785714285714286</v>
+        <v>0.015625</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1845238095238095</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="R9">
-        <v>0.07738095238095238</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="S9">
-        <v>0.4464285714285715</v>
+        <v>0.4322916666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1073703366696997</v>
+        <v>0.1083142639206712</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01637852593266606</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E10">
-        <v>0.0009099181073703367</v>
+        <v>0.0007627765064836003</v>
       </c>
       <c r="F10">
-        <v>0.05186533212010919</v>
+        <v>0.05339435545385202</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1219290263876251</v>
+        <v>0.1235697940503433</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02092811646951774</v>
+        <v>0.02059496567505721</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2038216560509554</v>
+        <v>0.2051868802440885</v>
       </c>
       <c r="R10">
-        <v>0.09554140127388536</v>
+        <v>0.08619374523264683</v>
       </c>
       <c r="S10">
-        <v>0.3812556869881711</v>
+        <v>0.3874904652936689</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1402877697841727</v>
+        <v>0.1467065868263473</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06474820143884892</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="K11">
-        <v>0.1906474820143885</v>
+        <v>0.1916167664670659</v>
       </c>
       <c r="L11">
-        <v>0.5827338129496403</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02158273381294964</v>
+        <v>0.02095808383233533</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7365269461077845</v>
+        <v>0.7437185929648241</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1736526946107785</v>
+        <v>0.1758793969849246</v>
       </c>
       <c r="K12">
-        <v>0.02395209580838323</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="L12">
-        <v>0.02395209580838323</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04191616766467066</v>
+        <v>0.04020100502512563</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7551020408163265</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1836734693877551</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06122448979591837</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0303030303030303</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1575757575757576</v>
+        <v>0.1565656565656566</v>
       </c>
       <c r="I15">
-        <v>0.07272727272727272</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01818181818181818</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04848484848484848</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2727272727272727</v>
+        <v>0.2929292929292929</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1604938271604938</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="I16">
-        <v>0.07407407407407407</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="J16">
-        <v>0.4691358024691358</v>
+        <v>0.4840425531914894</v>
       </c>
       <c r="K16">
-        <v>0.08641975308641975</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04938271604938271</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06172839506172839</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09876543209876543</v>
+        <v>0.09042553191489362</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03475935828877005</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.179144385026738</v>
+        <v>0.1811926605504587</v>
       </c>
       <c r="I17">
-        <v>0.0855614973262032</v>
+        <v>0.07568807339449542</v>
       </c>
       <c r="J17">
-        <v>0.4491978609625669</v>
+        <v>0.4426605504587156</v>
       </c>
       <c r="K17">
-        <v>0.106951871657754</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0106951871657754</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0427807486631016</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09090909090909091</v>
+        <v>0.1032110091743119</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01212121212121212</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1454545454545454</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="I18">
-        <v>0.06666666666666667</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="J18">
-        <v>0.4484848484848485</v>
+        <v>0.4432432432432433</v>
       </c>
       <c r="K18">
-        <v>0.1636363636363636</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0303030303030303</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N18">
-        <v>0.006060606060606061</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="O18">
-        <v>0.06666666666666667</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06060606060606061</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01084812623274162</v>
+        <v>0.01448109412711183</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1814595660749507</v>
+        <v>0.1777956556717619</v>
       </c>
       <c r="I19">
-        <v>0.09861932938856016</v>
+        <v>0.09573612228479485</v>
       </c>
       <c r="J19">
-        <v>0.4023668639053254</v>
+        <v>0.4006436041834272</v>
       </c>
       <c r="K19">
-        <v>0.121301775147929</v>
+        <v>0.1230893000804505</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03155818540433925</v>
+        <v>0.03137570394207562</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05325443786982249</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1005917159763314</v>
+        <v>0.1037811745776347</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tulsa_B.xlsx
+++ b/team_specific_matrix/Tulsa_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1980519480519481</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.512987012987013</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01623376623376623</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.006493506493506494</v>
+        <v>0.005797101449275362</v>
       </c>
       <c r="P2">
-        <v>0.1525974025974026</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1136363636363636</v>
+        <v>0.1159420289855072</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006060606060606061</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C3">
-        <v>0.04242424242424243</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04848484848484848</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7636363636363637</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1393939393939394</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6410256410256411</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.282051282051282</v>
+        <v>0.2954545454545455</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04972375690607735</v>
+        <v>0.04975124378109453</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01104972375690608</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03314917127071823</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3038674033149171</v>
+        <v>0.318407960199005</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01657458563535912</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1215469613259668</v>
+        <v>0.109452736318408</v>
       </c>
       <c r="R6">
-        <v>0.07734806629834254</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="S6">
-        <v>0.3867403314917127</v>
+        <v>0.373134328358209</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1208333333333333</v>
+        <v>0.1216730038022814</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01666666666666667</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02916666666666667</v>
+        <v>0.03041825095057034</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.15</v>
+        <v>0.155893536121673</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03333333333333333</v>
+        <v>0.03041825095057034</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1791666666666667</v>
+        <v>0.1863117870722434</v>
       </c>
       <c r="R7">
-        <v>0.0625</v>
+        <v>0.06463878326996197</v>
       </c>
       <c r="S7">
-        <v>0.4083333333333333</v>
+        <v>0.3954372623574144</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1018276762402089</v>
+        <v>0.09953703703703703</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02610966057441253</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06527415143603134</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1227154046997389</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02349869451697128</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1775456919060052</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R8">
-        <v>0.0731070496083551</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="S8">
-        <v>0.4099216710182768</v>
+        <v>0.4050925925925926</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02083333333333333</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0625</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1145833333333333</v>
+        <v>0.1220657276995305</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.015625</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1979166666666667</v>
+        <v>0.1924882629107981</v>
       </c>
       <c r="R9">
-        <v>0.07291666666666667</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="S9">
-        <v>0.4322916666666667</v>
+        <v>0.4225352112676056</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1083142639206712</v>
+        <v>0.1127348643006263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01449275362318841</v>
+        <v>0.01530967292971468</v>
       </c>
       <c r="E10">
-        <v>0.0007627765064836003</v>
+        <v>0.0006958942240779402</v>
       </c>
       <c r="F10">
-        <v>0.05339435545385202</v>
+        <v>0.05080027835768963</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1235697940503433</v>
+        <v>0.1217814892136395</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02059496567505721</v>
+        <v>0.01948503827418233</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2051868802440885</v>
+        <v>0.2045929018789144</v>
       </c>
       <c r="R10">
-        <v>0.08619374523264683</v>
+        <v>0.08907446068197634</v>
       </c>
       <c r="S10">
-        <v>0.3874904652936689</v>
+        <v>0.3855254001391789</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1467065868263473</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05988023952095808</v>
+        <v>0.05675675675675676</v>
       </c>
       <c r="K11">
-        <v>0.1916167664670659</v>
+        <v>0.1972972972972973</v>
       </c>
       <c r="L11">
-        <v>0.5808383233532934</v>
+        <v>0.5621621621621622</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02095808383233533</v>
+        <v>0.01891891891891892</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7437185929648241</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1758793969849246</v>
+        <v>0.1745283018867924</v>
       </c>
       <c r="K12">
-        <v>0.02010050251256281</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L12">
-        <v>0.02010050251256281</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04020100502512563</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1833333333333333</v>
+        <v>0.21875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02525252525252525</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1565656565656566</v>
+        <v>0.1658986175115207</v>
       </c>
       <c r="I15">
-        <v>0.0707070707070707</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="J15">
-        <v>0.3181818181818182</v>
+        <v>0.3179723502304148</v>
       </c>
       <c r="K15">
-        <v>0.06060606060606061</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02525252525252525</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0505050505050505</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2929292929292929</v>
+        <v>0.2949308755760369</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1595744680851064</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="I16">
-        <v>0.06914893617021277</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="J16">
-        <v>0.4840425531914894</v>
+        <v>0.477832512315271</v>
       </c>
       <c r="K16">
-        <v>0.09042553191489362</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.05319148936170213</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05319148936170213</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09042553191489362</v>
+        <v>0.08866995073891626</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03211009174311927</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1811926605504587</v>
+        <v>0.1877637130801688</v>
       </c>
       <c r="I17">
-        <v>0.07568807339449542</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="J17">
-        <v>0.4426605504587156</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="K17">
-        <v>0.1100917431192661</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009174311926605505</v>
+        <v>0.01054852320675105</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04587155963302753</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1032110091743119</v>
+        <v>0.09915611814345991</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01081081081081081</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1351351351351351</v>
+        <v>0.1336405529953917</v>
       </c>
       <c r="I18">
-        <v>0.07027027027027027</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="J18">
-        <v>0.4432432432432433</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0.1621621621621622</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02702702702702703</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="N18">
-        <v>0.005405405405405406</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="O18">
-        <v>0.06486486486486487</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08108108108108109</v>
+        <v>0.09216589861751152</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01448109412711183</v>
+        <v>0.01466275659824047</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1777956556717619</v>
+        <v>0.1825513196480938</v>
       </c>
       <c r="I19">
-        <v>0.09573612228479485</v>
+        <v>0.09604105571847507</v>
       </c>
       <c r="J19">
-        <v>0.4006436041834272</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="K19">
-        <v>0.1230893000804505</v>
+        <v>0.1202346041055719</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03137570394207562</v>
+        <v>0.03079178885630499</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05309734513274336</v>
+        <v>0.05205278592375367</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1037811745776347</v>
+        <v>0.1004398826979472</v>
       </c>
     </row>
   </sheetData>
